--- a/final assignment/data/optimize_results/results_scenario_1_seed_1.xlsx
+++ b/final assignment/data/optimize_results/results_scenario_1_seed_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -662,94 +662,94 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
         <v>2</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
         <v>8</v>
       </c>
-      <c r="T2" t="n">
-        <v>4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>6</v>
-      </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>8</v>
       </c>
       <c r="AB2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>185813292.8768059</v>
+        <v>138973384.0729252</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5634251.422613442</v>
+        <v>8172169.777020221</v>
       </c>
       <c r="AK2" t="n">
-        <v>138668558.6031179</v>
+        <v>147929705.4732663</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0005508475875779639</v>
+        <v>0.0007858405654115613</v>
       </c>
       <c r="AM2" t="n">
-        <v>777700000</v>
+        <v>856400000</v>
       </c>
       <c r="AN2" t="n">
-        <v>262.504173798482</v>
+        <v>446.4329246484455</v>
       </c>
     </row>
     <row r="3">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,16 +769,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -796,64 +796,64 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="n">
         <v>4</v>
       </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="Z3" t="n">
         <v>9</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
       </c>
       <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="n">
         <v>4</v>
       </c>
-      <c r="AC3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5</v>
-      </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>187828318.8878985</v>
+        <v>147239991.0047867</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>112832601.0182171</v>
+        <v>137740019.7160821</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1020400000</v>
+        <v>879600000</v>
       </c>
       <c r="AN3" t="n">
-        <v>869.5079003379362</v>
+        <v>1220.044924097448</v>
       </c>
     </row>
     <row r="4">
@@ -879,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -927,55 +927,55 @@
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>82486364.32617709</v>
+        <v>240736110.6167464</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>128904282.8871786</v>
+        <v>108083458.3295603</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>885500000</v>
+        <v>679700000</v>
       </c>
       <c r="AN4" t="n">
-        <v>273.5969973991042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1001,28 +1001,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1046,76 +1046,76 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
         <v>8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>6</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
         <v>9</v>
       </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6</v>
-      </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>203829902.6268574</v>
+        <v>37255203.23710208</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9881328.533140641</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>124573879.8096008</v>
+        <v>309909235.2860951</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0009607894744260225</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>607900000</v>
+        <v>1305500000</v>
       </c>
       <c r="AN5" t="n">
-        <v>538.0048445509199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1135,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1165,79 +1165,79 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>4</v>
       </c>
       <c r="AE6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF6" t="n">
         <v>8</v>
       </c>
-      <c r="AF6" t="n">
-        <v>2</v>
-      </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>111738176.0228895</v>
+        <v>204789141.2873344</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>19548950.51536079</v>
       </c>
       <c r="AK6" t="n">
-        <v>243507249.1878171</v>
+        <v>128933649.8662307</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.005695735944215474</v>
       </c>
       <c r="AM6" t="n">
-        <v>837700000</v>
+        <v>550900000</v>
       </c>
       <c r="AN6" t="n">
-        <v>190.9422034357752</v>
+        <v>1370.282643769515</v>
       </c>
     </row>
     <row r="7">
@@ -1248,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1266,22 +1266,22 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1290,76 +1290,76 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
         <v>5</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>10</v>
       </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA7" t="n">
         <v>3</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AF7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>68139002.95605196</v>
+        <v>82486364.32617709</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9829521.869723843</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>177142338.9340715</v>
+        <v>165480625.6016195</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.002852535779736032</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1297900000</v>
+        <v>654200000</v>
       </c>
       <c r="AN7" t="n">
-        <v>222.7600097482172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1412,58 +1412,58 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>7</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
         <v>2</v>
       </c>
-      <c r="AB8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>176128314.2007408</v>
+        <v>120872818.048313</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1472,16 +1472,16 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>204616730.7308736</v>
+        <v>104651657.8661712</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>569600000</v>
+        <v>1080100000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>261.910600947513</v>
       </c>
     </row>
     <row r="9">
@@ -1495,34 +1495,34 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1534,40 +1534,40 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="n">
         <v>9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>10</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6</v>
       </c>
       <c r="AC9" t="n">
         <v>6</v>
@@ -1576,16 +1576,16 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>135674464.191027</v>
+        <v>47847947.96145424</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -1594,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>208389932.6329176</v>
+        <v>222347815.0042441</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>813700000</v>
+        <v>1199900000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>409.036932036192</v>
       </c>
     </row>
     <row r="10">
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1629,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1653,79 +1653,79 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>9</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
         <v>6</v>
       </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="AB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD10" t="n">
         <v>5</v>
       </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2</v>
-      </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>197245590.0027103</v>
+        <v>128446235.0622317</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2309051.079747572</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>106358076.754733</v>
+        <v>282061437.6485507</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0006910910832270407</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>704500000</v>
+        <v>490900000</v>
       </c>
       <c r="AN10" t="n">
-        <v>198.3009131046927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1733,40 +1733,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1775,79 +1775,79 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>4</v>
       </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>7</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5</v>
-      </c>
       <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="n">
         <v>4</v>
       </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AC11" t="n">
         <v>8</v>
       </c>
-      <c r="Z11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
         <v>6</v>
       </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
       <c r="AF11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>123922014.8344122</v>
+        <v>42291505.65437629</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>6916614.109465618</v>
       </c>
       <c r="AK11" t="n">
-        <v>228335612.7589995</v>
+        <v>128904282.8871786</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.005531498125579153</v>
       </c>
       <c r="AM11" t="n">
-        <v>589200000</v>
+        <v>1233700000</v>
       </c>
       <c r="AN11" t="n">
-        <v>725.9290924532067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1855,10 +1855,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1891,85 +1891,85 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
         <v>2</v>
       </c>
-      <c r="V12" t="n">
-        <v>7</v>
-      </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
         <v>2</v>
       </c>
-      <c r="Y12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9</v>
-      </c>
       <c r="AC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>6</v>
       </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>142489096.8745909</v>
+        <v>182478543.3830135</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5839861.896831042</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>121229975.8704711</v>
+        <v>159442877.2011189</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0005903142223136907</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>814600000</v>
+        <v>315200000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1163.073727381193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1977,34 +1977,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2022,76 +2022,442 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>76299088.11882158</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>213260050.3746104</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1224500000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="n">
         <v>2</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AB14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16645059.01651442</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>226972602.0983282</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.00122998049244961</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19539199.58459094</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>179357791.4944685</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.001896706970938198</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>286800000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1151.54926527049</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>9</v>
+      </c>
+      <c r="V15" t="n">
         <v>4</v>
       </c>
-      <c r="S13" t="n">
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>166624069.0617073</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>264412695.5154772</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>448400000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>10.70539830891218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" t="n">
         <v>2</v>
       </c>
-      <c r="T13" t="n">
-        <v>6</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="n">
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="n">
         <v>7</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE16" t="n">
         <v>9</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AF16" t="n">
         <v>2</v>
       </c>
-      <c r="Y13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>164741366.9980019</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>5634251.422613442</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>231810774.1138417</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.000688559484472455</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>303800000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>337.0777466055097</v>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>161627713.2859488</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>95202239.80249318</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>777700000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
